--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H2">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I2">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J2">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N2">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O2">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P2">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q2">
-        <v>5.824758579597777</v>
+        <v>3.478070504355</v>
       </c>
       <c r="R2">
-        <v>52.42282721637999</v>
+        <v>31.302634539195</v>
       </c>
       <c r="S2">
-        <v>0.01650651804611441</v>
+        <v>0.0121086775373061</v>
       </c>
       <c r="T2">
-        <v>0.01803356299432067</v>
+        <v>0.01290340862234561</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H3">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I3">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J3">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P3">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q3">
-        <v>8.497223388182221</v>
+        <v>5.840245680258001</v>
       </c>
       <c r="R3">
-        <v>76.47501049364</v>
+        <v>52.562211122322</v>
       </c>
       <c r="S3">
-        <v>0.0240798943479269</v>
+        <v>0.02033243765252639</v>
       </c>
       <c r="T3">
-        <v>0.02630756470909058</v>
+        <v>0.02166692031484076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H4">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I4">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J4">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N4">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O4">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P4">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q4">
-        <v>11.10371856224222</v>
+        <v>9.570524195235002</v>
       </c>
       <c r="R4">
-        <v>99.93346706017999</v>
+        <v>86.13471775711501</v>
       </c>
       <c r="S4">
-        <v>0.03146632230709263</v>
+        <v>0.03331916106875397</v>
       </c>
       <c r="T4">
-        <v>0.03437732318465123</v>
+        <v>0.03550600376459706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H5">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I5">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J5">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N5">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O5">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P5">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q5">
-        <v>5.994686481560001</v>
+        <v>2.43346122225</v>
       </c>
       <c r="R5">
-        <v>35.96811888936</v>
+        <v>14.6007673335</v>
       </c>
       <c r="S5">
-        <v>0.0169880689880028</v>
+        <v>0.008471937875574615</v>
       </c>
       <c r="T5">
-        <v>0.01237310866697814</v>
+        <v>0.00601865209997085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.863513333333333</v>
+        <v>5.404689</v>
       </c>
       <c r="H6">
-        <v>23.59054</v>
+        <v>16.214067</v>
       </c>
       <c r="I6">
-        <v>0.1316713470554304</v>
+        <v>0.08747859311663772</v>
       </c>
       <c r="J6">
-        <v>0.1376659241260802</v>
+        <v>0.09021076583983562</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N6">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O6">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P6">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q6">
-        <v>15.04330728818889</v>
+        <v>3.804861421614</v>
       </c>
       <c r="R6">
-        <v>135.3897655937</v>
+        <v>34.243752794526</v>
       </c>
       <c r="S6">
-        <v>0.04263054336629368</v>
+        <v>0.01324637898247664</v>
       </c>
       <c r="T6">
-        <v>0.04657436457103959</v>
+        <v>0.01411578103808133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J7">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N7">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O7">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P7">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q7">
-        <v>11.20711551384456</v>
+        <v>9.73644060553389</v>
       </c>
       <c r="R7">
-        <v>100.864039624601</v>
+        <v>87.627965449805</v>
       </c>
       <c r="S7">
-        <v>0.0317593342189537</v>
+        <v>0.0338967883215486</v>
       </c>
       <c r="T7">
-        <v>0.03469744210711998</v>
+        <v>0.03612154253431395</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J8">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P8">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q8">
         <v>16.34906627578644</v>
@@ -948,10 +948,10 @@
         <v>147.141596482078</v>
       </c>
       <c r="S8">
-        <v>0.04633087428956149</v>
+        <v>0.05691821696014075</v>
       </c>
       <c r="T8">
-        <v>0.05061701915259084</v>
+        <v>0.06065394088076558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J9">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N9">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O9">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P9">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q9">
-        <v>21.36408828962345</v>
+        <v>26.79153291287612</v>
       </c>
       <c r="R9">
-        <v>192.276794606611</v>
+        <v>241.123796215885</v>
       </c>
       <c r="S9">
-        <v>0.06054271676197136</v>
+        <v>0.0932729892524997</v>
       </c>
       <c r="T9">
-        <v>0.06614362238748056</v>
+        <v>0.09939479270503505</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J10">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N10">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O10">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P10">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q10">
-        <v>11.534064965962</v>
+        <v>6.812182394416667</v>
       </c>
       <c r="R10">
-        <v>69.204389795772</v>
+        <v>40.87309436650001</v>
       </c>
       <c r="S10">
-        <v>0.03268586138017324</v>
+        <v>0.02371617246862054</v>
       </c>
       <c r="T10">
-        <v>0.02380645587301761</v>
+        <v>0.01684849361833316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2533420014148681</v>
+        <v>0.2448858138641327</v>
       </c>
       <c r="J11">
-        <v>0.2648758558689792</v>
+        <v>0.2525342032254661</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N11">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O11">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P11">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q11">
-        <v>28.94404638151278</v>
+        <v>10.65125252563045</v>
       </c>
       <c r="R11">
-        <v>260.496417433615</v>
+        <v>95.861272730674</v>
       </c>
       <c r="S11">
-        <v>0.08202321476420825</v>
+        <v>0.03708164686132317</v>
       </c>
       <c r="T11">
-        <v>0.08961131634877025</v>
+        <v>0.03951543348701835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H12">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I12">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J12">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N12">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O12">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P12">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q12">
-        <v>10.65348006928311</v>
+        <v>11.30325148024833</v>
       </c>
       <c r="R12">
-        <v>95.88132062354799</v>
+        <v>101.729263322235</v>
       </c>
       <c r="S12">
-        <v>0.03019041194831548</v>
+        <v>0.03935153905765539</v>
       </c>
       <c r="T12">
-        <v>0.03298337627435598</v>
+        <v>0.04193430594007604</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H13">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I13">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J13">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.241766</v>
       </c>
       <c r="O13">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P13">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q13">
-        <v>15.54141665670489</v>
+        <v>18.97999639390067</v>
       </c>
       <c r="R13">
-        <v>139.872749910344</v>
+        <v>170.819967545106</v>
       </c>
       <c r="S13">
-        <v>0.04404211281899979</v>
+        <v>0.06607763002653562</v>
       </c>
       <c r="T13">
-        <v>0.04811652061964528</v>
+        <v>0.0704145154086127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H14">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I14">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J14">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N14">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O14">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P14">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q14">
-        <v>20.30869482078089</v>
+        <v>31.10288927182167</v>
       </c>
       <c r="R14">
-        <v>182.778253387028</v>
+        <v>279.926003446395</v>
       </c>
       <c r="S14">
-        <v>0.0575518852792348</v>
+        <v>0.1082826976047365</v>
       </c>
       <c r="T14">
-        <v>0.06287610419868703</v>
+        <v>0.1153896360373841</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H15">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I15">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J15">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N15">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O15">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P15">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q15">
-        <v>10.964278103576</v>
+        <v>7.908414774250001</v>
       </c>
       <c r="R15">
-        <v>65.78566862145601</v>
+        <v>47.4504886455</v>
       </c>
       <c r="S15">
-        <v>0.03107116834218936</v>
+        <v>0.02753263460667519</v>
       </c>
       <c r="T15">
-        <v>0.02263040858730804</v>
+        <v>0.01955979275661961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.38236133333333</v>
+        <v>17.564497</v>
       </c>
       <c r="H16">
-        <v>43.147084</v>
+        <v>52.69349099999999</v>
       </c>
       <c r="I16">
-        <v>0.2408268175206591</v>
+        <v>0.2842934138044583</v>
       </c>
       <c r="J16">
-        <v>0.2517908955117437</v>
+        <v>0.2931725999334087</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N16">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O16">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P16">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q16">
-        <v>27.51420031933556</v>
+        <v>12.36527708168867</v>
       </c>
       <c r="R16">
-        <v>247.62780287402</v>
+        <v>111.287493735198</v>
       </c>
       <c r="S16">
-        <v>0.07797123913191968</v>
+        <v>0.04304891250885556</v>
       </c>
       <c r="T16">
-        <v>0.08518448583174736</v>
+        <v>0.04587434979071624</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H17">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I17">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J17">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N17">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O17">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P17">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q17">
-        <v>5.7788310761895</v>
+        <v>3.6124981031975</v>
       </c>
       <c r="R17">
-        <v>34.672986457137</v>
+        <v>21.674988619185</v>
       </c>
       <c r="S17">
-        <v>0.0163763661860052</v>
+        <v>0.01257667852936766</v>
       </c>
       <c r="T17">
-        <v>0.01192758038201789</v>
+        <v>0.008934750673712055</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H18">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I18">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J18">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.241766</v>
       </c>
       <c r="O18">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P18">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q18">
-        <v>8.430223829180999</v>
+        <v>6.065971467720999</v>
       </c>
       <c r="R18">
-        <v>50.581342975086</v>
+        <v>36.395828806326</v>
       </c>
       <c r="S18">
-        <v>0.02389002734921402</v>
+        <v>0.02111828738410071</v>
       </c>
       <c r="T18">
-        <v>0.01740008853611656</v>
+        <v>0.01500289857867788</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H19">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I19">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J19">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N19">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O19">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P19">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q19">
-        <v>11.0161671100845</v>
+        <v>9.9404254337575</v>
       </c>
       <c r="R19">
-        <v>66.097002660507</v>
+        <v>59.642552602545</v>
       </c>
       <c r="S19">
-        <v>0.03121821423441355</v>
+        <v>0.03460694830949874</v>
       </c>
       <c r="T19">
-        <v>0.02273750815258575</v>
+        <v>0.02458554172322942</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H20">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I20">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J20">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N20">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O20">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P20">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q20">
-        <v>5.947419117591001</v>
+        <v>2.527514620125</v>
       </c>
       <c r="R20">
-        <v>23.789676470364</v>
+        <v>10.1100584805</v>
       </c>
       <c r="S20">
-        <v>0.01685412015807542</v>
+        <v>0.008799378697930091</v>
       </c>
       <c r="T20">
-        <v>0.008183698820211065</v>
+        <v>0.004167515536315523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.8015105</v>
+        <v>5.613580499999999</v>
       </c>
       <c r="H21">
-        <v>15.603021</v>
+        <v>11.227161</v>
       </c>
       <c r="I21">
-        <v>0.1306331347144344</v>
+        <v>0.09085964511315853</v>
       </c>
       <c r="J21">
-        <v>0.0910536301892045</v>
+        <v>0.06246494429911598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N21">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O21">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P21">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q21">
-        <v>14.9246926645425</v>
+        <v>3.951919505743</v>
       </c>
       <c r="R21">
-        <v>89.548155987255</v>
+        <v>23.711517034458</v>
       </c>
       <c r="S21">
-        <v>0.04229440678672624</v>
+        <v>0.01375835219226133</v>
       </c>
       <c r="T21">
-        <v>0.03080475429827324</v>
+        <v>0.009774237787181107</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H22">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I22">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J22">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.7407323333333333</v>
+        <v>0.6435283333333334</v>
       </c>
       <c r="N22">
-        <v>2.222197</v>
+        <v>1.930585</v>
       </c>
       <c r="O22">
-        <v>0.125361503586392</v>
+        <v>0.1384187503011309</v>
       </c>
       <c r="P22">
-        <v>0.1309951108729331</v>
+        <v>0.1430362385488992</v>
       </c>
       <c r="Q22">
-        <v>10.77291500997744</v>
+        <v>11.62884356795111</v>
       </c>
       <c r="R22">
-        <v>96.95623508979699</v>
+        <v>104.65959211156</v>
       </c>
       <c r="S22">
-        <v>0.0305288731870032</v>
+        <v>0.04048506685525314</v>
       </c>
       <c r="T22">
-        <v>0.03335314911511858</v>
+        <v>0.04314223077845152</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H23">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I23">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J23">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.241766</v>
       </c>
       <c r="O23">
-        <v>0.1828787726899297</v>
+        <v>0.2324275794584003</v>
       </c>
       <c r="P23">
-        <v>0.1910971424199137</v>
+        <v>0.2401810927235583</v>
       </c>
       <c r="Q23">
-        <v>15.71564969272955</v>
+        <v>19.52671842881956</v>
       </c>
       <c r="R23">
-        <v>141.440847234566</v>
+        <v>175.740465859376</v>
       </c>
       <c r="S23">
-        <v>0.04453586388422746</v>
+        <v>0.0679810074350969</v>
       </c>
       <c r="T23">
-        <v>0.04865594940247039</v>
+        <v>0.07244281754066134</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H24">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I24">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J24">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.412055666666667</v>
+        <v>1.770781666666667</v>
       </c>
       <c r="N24">
-        <v>4.236167</v>
+        <v>5.312345000000001</v>
       </c>
       <c r="O24">
-        <v>0.2389762314336017</v>
+        <v>0.3808835954223518</v>
       </c>
       <c r="P24">
-        <v>0.2497155589001607</v>
+        <v>0.3935894284240538</v>
       </c>
       <c r="Q24">
-        <v>20.53637326441855</v>
+        <v>31.9988133047689</v>
       </c>
       <c r="R24">
-        <v>184.827359379767</v>
+        <v>287.98931974292</v>
       </c>
       <c r="S24">
-        <v>0.05819709285088936</v>
+        <v>0.1114017991868629</v>
       </c>
       <c r="T24">
-        <v>0.06358100097675612</v>
+        <v>0.1187134541938081</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H25">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I25">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J25">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7623420000000001</v>
+        <v>0.45025</v>
       </c>
       <c r="N25">
-        <v>1.524684</v>
+        <v>0.9005000000000001</v>
       </c>
       <c r="O25">
-        <v>0.1290187225080278</v>
+        <v>0.09684584049355638</v>
       </c>
       <c r="P25">
-        <v>0.08987778744467172</v>
+        <v>0.06671766993594362</v>
       </c>
       <c r="Q25">
-        <v>11.087197365314</v>
+        <v>8.136218011333336</v>
       </c>
       <c r="R25">
-        <v>66.523184191884</v>
+        <v>48.81730806800001</v>
       </c>
       <c r="S25">
-        <v>0.03141950363958695</v>
+        <v>0.02832571684475596</v>
       </c>
       <c r="T25">
-        <v>0.02288411549715685</v>
+        <v>0.02012321592470448</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.54360033333333</v>
+        <v>18.07044533333334</v>
       </c>
       <c r="H26">
-        <v>43.630801</v>
+        <v>54.211336</v>
       </c>
       <c r="I26">
-        <v>0.243526699294608</v>
+        <v>0.2924825341016128</v>
       </c>
       <c r="J26">
-        <v>0.2546136943039924</v>
+        <v>0.3016174867021735</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.913051666666667</v>
+        <v>0.7039926666666667</v>
       </c>
       <c r="N26">
-        <v>5.739155</v>
+        <v>2.111978</v>
       </c>
       <c r="O26">
-        <v>0.3237647697820488</v>
+        <v>0.1514242343245606</v>
       </c>
       <c r="P26">
-        <v>0.3383144003623209</v>
+        <v>0.1564755703675451</v>
       </c>
       <c r="Q26">
-        <v>27.82265885701722</v>
+        <v>12.72146099806756</v>
       </c>
       <c r="R26">
-        <v>250.403929713155</v>
+        <v>114.493148982608</v>
       </c>
       <c r="S26">
-        <v>0.07884536573290098</v>
+        <v>0.0442889437796439</v>
       </c>
       <c r="T26">
-        <v>0.08613947931249047</v>
+        <v>0.04719576826454805</v>
       </c>
     </row>
   </sheetData>
